--- a/Config/LoadingTips.xlsx
+++ b/Config/LoadingTips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\毕业设计\rescue-endangered\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954974D1-5CA3-41FB-A88B-3E7529405C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A9BABF-CEA2-4B62-95F5-BB2AAAE6BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="495" windowWidth="16260" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoadingTips" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,35 +47,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提示_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示_02</t>
-  </si>
-  <si>
-    <t>提示_03</t>
-  </si>
-  <si>
-    <t>提示_04</t>
-  </si>
-  <si>
-    <t>提示_05</t>
-  </si>
-  <si>
-    <t>提示_06</t>
-  </si>
-  <si>
-    <t>提示_07</t>
-  </si>
-  <si>
-    <t>提示_08</t>
-  </si>
-  <si>
-    <t>提示_09</t>
-  </si>
-  <si>
-    <t>提示_10</t>
+    <t>2020年6月5日，为进一步加大对穿山甲的保护力度，中国将穿山甲属所有种由国家二级保护野生动物提升至一级。</t>
+  </si>
+  <si>
+    <t>保护动物多样性的措施主要包括：就地保护、易地保护、法制教育和管理三个方面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20世纪后期以来，白暨豚受到人类活动的严重侵害而数量锐减，被认为是第一个由于人为因素而走向灭绝的鲸豚类动物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家重点保护动物划分标准，I级：指中国特产稀有或濒临灭绝的野生动物。II级：指数量稀少，分布地区狭窄，有灭绝危险的野生动物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成野生动物数量减少的原因是复杂的，最常见的原因就是自然灾害的破坏与人类活动的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A9" sqref="A9:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="69.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -463,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -471,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -496,46 +484,6 @@
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
